--- a/material/quantiles.xlsx
+++ b/material/quantiles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t xml:space="preserve">q</t>
   </si>
@@ -55,31 +55,40 @@
     <t xml:space="preserve">Mediana</t>
   </si>
   <si>
+    <t xml:space="preserve">Q10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q75</t>
   </si>
   <si>
+    <t xml:space="preserve">Q20,Q25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q30,Q40,Q50</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q20</t>
   </si>
   <si>
+    <t xml:space="preserve">Q60,Q70,Q75</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q40</t>
   </si>
   <si>
+    <t xml:space="preserve">Q80</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q60</t>
   </si>
   <si>
-    <t xml:space="preserve">Q80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q10</t>
+    <t xml:space="preserve">Q90</t>
   </si>
   <si>
     <t xml:space="preserve">Q30</t>
   </si>
   <si>
     <t xml:space="preserve">Q70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q90</t>
   </si>
 </sst>
 </file>
@@ -95,6 +104,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,12 +122,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF77BC65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -134,7 +150,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FF99CC00"/>
+        <bgColor rgb="FF81D41A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -179,12 +201,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,19 +214,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,14 +291,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF77BC65"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -287,20 +317,21 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,6 +357,9 @@
         <f aca="false">+D11*(I2/100)</f>
         <v>62.5</v>
       </c>
+      <c r="K2" s="0" t="n">
+        <v>28.33</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
@@ -337,7 +371,7 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -353,7 +387,7 @@
         <f aca="false">+D11*I3/100</f>
         <v>125</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="4" t="n">
         <f aca="false">+B6+((J3-E5)/D6)*F6</f>
         <v>39.1666666666667</v>
       </c>
@@ -362,6 +396,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" s="2" t="n">
         <v>10</v>
       </c>
@@ -379,7 +416,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>75</v>
@@ -388,90 +425,115 @@
         <f aca="false">+D11*I4/100</f>
         <v>187.5</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="4" t="n">
         <f aca="false">+B7+((J4-E6)/D7)*F7</f>
         <v>49.5833333333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <f aca="false">+E4+D5</f>
         <v>70</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <f aca="false">+C5-B5</f>
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="6" t="n">
         <f aca="false">+E5+D6</f>
         <v>130</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <f aca="false">+C6-B6</f>
         <v>10</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">+$D$11*(I6/100)</f>
+        <v>50</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <f aca="false">+B5+((J6-E4)/D5)*F5</f>
+        <v>25.5555555555556</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>25.56</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <f aca="false">+E6+D7</f>
         <v>190</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <f aca="false">+C7-B7</f>
         <v>10</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">+$D$11*(I7/100)</f>
+        <v>100</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <f aca="false">+B6+((J7-E5)/D6)*F6</f>
+        <v>35</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="2" t="n">
         <v>50</v>
       </c>
@@ -490,13 +552,27 @@
         <v>10</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">+$D$11*(I8/100)</f>
+        <v>150</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <f aca="false">+B7+((J8-E6)/D7)*F7</f>
+        <v>43.3333333333333</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>43.33</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" s="2" t="n">
         <v>60</v>
       </c>
@@ -515,10 +591,21 @@
         <v>10</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>80</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">+$D$11*(I9/100)</f>
+        <v>200</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <f aca="false">+B8+((J9-E7)/D8)*F8</f>
+        <v>53.3333333333333</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>53.33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,47 +633,173 @@
         <v>250</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">+$D$11*(I11/100)</f>
+        <v>25</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <f aca="false">+B4+((J11-0)/D4)*F4</f>
+        <v>20</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H12" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">+$D$11*(I12/100)</f>
+        <v>50</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <f aca="false">+K6</f>
+        <v>25.5555555555556</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>25.56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H13" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">+$D$11*(I13/100)</f>
+        <v>75</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <f aca="false">+B6+((J13-E5)/D6)*F6</f>
+        <v>30.8333333333333</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>30.83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">+$D$11*(I14/100)</f>
+        <v>100</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <f aca="false">+K7</f>
+        <v>35</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H15" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="I15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">+$D$11*(I15/100)</f>
+        <v>125</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <f aca="false">+K3</f>
+        <v>39.1666666666667</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>39.17</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">+$D$11*(I16/100)</f>
+        <v>150</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <f aca="false">+K8</f>
+        <v>43.3333333333333</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>43.33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">+$D$11*(I17/100)</f>
+        <v>175</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <f aca="false">+B7+((J17-E6)/D7)*F7</f>
+        <v>47.5</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>47.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">+$D$11*(I18/100)</f>
+        <v>200</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <f aca="false">+K9</f>
+        <v>53.3333333333333</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>53.33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H19" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">+$D$11*(I19/100)</f>
+        <v>225</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <f aca="false">+B9+((J19-E8)/D9)*F9</f>
+        <v>62.5</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
